--- a/Vote_SignIn_System/export_xlsx/SignInResult.xlsx
+++ b/Vote_SignIn_System/export_xlsx/SignInResult.xlsx
@@ -24,18 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>应到人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实到人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未到人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到勤率</t>
+    <t>出勤率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inf%</t>
   </si>
 </sst>
 </file>
@@ -379,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -387,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -395,15 +402,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>4294967291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.5</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
